--- a/config_debug/activity_024_lgfl2_config.xlsx
+++ b/config_debug/activity_024_lgfl2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.活动时间：7月21日7:30-7月27日23:59:59</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>连购返利</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -278,6 +274,10 @@
   </si>
   <si>
     <t>188888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.活动时间：8月11日7:30-8月17日23:59:59</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -764,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -823,7 +823,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -964,7 +964,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -997,7 +997,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1030,7 +1030,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1062,7 +1062,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>41</v>

--- a/config_debug/activity_024_lgfl2_config.xlsx
+++ b/config_debug/activity_024_lgfl2_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>index|索引</t>
   </si>
@@ -196,30 +196,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每天在游戏中累计购买3次98元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次50元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次30元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次15元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.活动任务每天0点重置，未领取的奖励视为自动放弃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.活动中的图片仅作为参考，请以实际发出的奖励为准；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>tge</t>
     </r>
@@ -257,10 +233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sxlgfl_bg_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>888888,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -277,7 +249,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>每天在商城中累计购买3次98元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在商城中累计购买3次50元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在商城中累计购买3次30元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在商城中累计购买3次15元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.活动时间：8月11日7:30-8月17日23:59:59</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.活动期间累计购买指定金额达到指定次数，可领取连购奖励。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.活动任务每天0点重置，未领取的奖励视为放弃。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.活动图片仅供参考，请以实际发出的奖励为准。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgfl_bg_bg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.实物奖励三选一，获得实物奖励的玩家请联系微信公众号“畅游新世界”领取奖励</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +738,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -764,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -783,7 +791,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -820,10 +828,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -862,7 +870,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -955,21 +963,21 @@
         <v>3</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="14"/>
@@ -988,22 +996,22 @@
         <v>3</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="15"/>
@@ -1021,21 +1029,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="L4" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="15"/>
@@ -1053,21 +1061,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="L5" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="15"/>
@@ -1120,7 +1128,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1157,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1165,14 +1173,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
